--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T19:34:16+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1394,7 +1394,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1929,7 +1929,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="105.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="97.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
